--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_17.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5D554-3158-A44F-BB2D-D8FF312ECE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E3CF5-5746-A946-A5BA-4ED3DFB86161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="3840" windowWidth="29440" windowHeight="20120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2516,9 +2516,6 @@
     <t>NO_download: Benecka_2020_the study_set_16</t>
   </si>
   <si>
-    <t xml:space="preserve">Has been coded until now. Proably the results should be the same as for Benecka_2020_the in study set 16 which is not coded but the more recent version of the paper. </t>
-  </si>
-  <si>
     <t>6YRVMIZ6</t>
   </si>
   <si>
@@ -2706,6 +2703,9 @@
   </si>
   <si>
     <t>dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benecka_2020_the in study set 16  is the more recent version of the paper. </t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2737,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2748,12 +2748,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2769,12 +2763,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3111,7 +3104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF93" sqref="AF93"/>
     </sheetView>
   </sheetViews>
@@ -3222,7 +3215,7 @@
         <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -3286,6 +3279,9 @@
       <c r="Y2" t="s">
         <v>43</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3357,6 +3353,9 @@
       <c r="Y3" t="s">
         <v>43</v>
       </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3419,6 +3418,9 @@
       <c r="Z4" t="s">
         <v>63</v>
       </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3490,6 +3492,9 @@
       <c r="Y5" t="s">
         <v>43</v>
       </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3561,6 +3566,9 @@
       <c r="Y6" t="s">
         <v>43</v>
       </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3629,6 +3637,9 @@
       <c r="Y7" t="s">
         <v>43</v>
       </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3700,6 +3711,9 @@
       <c r="Y8" t="s">
         <v>43</v>
       </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3762,6 +3776,9 @@
       <c r="Y9" t="s">
         <v>43</v>
       </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3833,6 +3850,9 @@
       <c r="Y10" t="s">
         <v>43</v>
       </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3981,6 +4001,9 @@
       <c r="Y12" t="s">
         <v>43</v>
       </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4052,6 +4075,9 @@
       <c r="Y13" t="s">
         <v>43</v>
       </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4114,6 +4140,9 @@
       <c r="Y14" t="s">
         <v>43</v>
       </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4256,6 +4285,9 @@
       <c r="Y16" t="s">
         <v>43</v>
       </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4321,6 +4353,9 @@
       <c r="Y17" t="s">
         <v>43</v>
       </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -4389,6 +4424,9 @@
       <c r="Y18" t="s">
         <v>43</v>
       </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4460,6 +4498,9 @@
       <c r="Y19" t="s">
         <v>43</v>
       </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -4525,6 +4566,9 @@
       <c r="Y20" t="s">
         <v>43</v>
       </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4587,6 +4631,9 @@
       <c r="Y21" t="s">
         <v>43</v>
       </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -4658,6 +4705,9 @@
       <c r="Y22" t="s">
         <v>43</v>
       </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -4723,6 +4773,9 @@
       <c r="Y23" t="s">
         <v>43</v>
       </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -4785,6 +4838,9 @@
       <c r="Y24" t="s">
         <v>43</v>
       </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -4859,6 +4915,9 @@
       <c r="Y25" t="s">
         <v>43</v>
       </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4921,6 +4980,9 @@
       <c r="Y26" t="s">
         <v>43</v>
       </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -4992,6 +5054,9 @@
       <c r="Y27" t="s">
         <v>43</v>
       </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -5066,6 +5131,9 @@
       <c r="Y28" t="s">
         <v>43</v>
       </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -5131,6 +5199,9 @@
       <c r="Y29" t="s">
         <v>43</v>
       </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -5208,6 +5279,9 @@
       <c r="Y30" t="s">
         <v>43</v>
       </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -5427,6 +5501,9 @@
       <c r="Y33" t="s">
         <v>43</v>
       </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -5501,6 +5578,9 @@
       <c r="Y34" t="s">
         <v>43</v>
       </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -5572,6 +5652,9 @@
       <c r="Y35" t="s">
         <v>43</v>
       </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -5637,6 +5720,9 @@
       <c r="Y36" t="s">
         <v>43</v>
       </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -5711,6 +5797,9 @@
       <c r="Y37" t="s">
         <v>43</v>
       </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -5782,6 +5871,9 @@
       <c r="Y38" t="s">
         <v>43</v>
       </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -5844,6 +5936,9 @@
       <c r="Y39" t="s">
         <v>43</v>
       </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -5915,6 +6010,9 @@
       <c r="Y40" t="s">
         <v>43</v>
       </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -5986,6 +6084,9 @@
       <c r="Y41" t="s">
         <v>43</v>
       </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -6122,6 +6223,9 @@
       <c r="Y43" t="s">
         <v>43</v>
       </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -6193,6 +6297,9 @@
       <c r="Y44" t="s">
         <v>43</v>
       </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -6267,6 +6374,9 @@
       <c r="Y45" t="s">
         <v>43</v>
       </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -6332,6 +6442,9 @@
       <c r="Y46" t="s">
         <v>43</v>
       </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -6400,6 +6513,9 @@
       <c r="Y47" t="s">
         <v>43</v>
       </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -6462,6 +6578,9 @@
       <c r="Y48" t="s">
         <v>43</v>
       </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -6536,6 +6655,9 @@
       <c r="Y49" t="s">
         <v>43</v>
       </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -6610,6 +6732,9 @@
       <c r="Y50" t="s">
         <v>43</v>
       </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -6684,6 +6809,9 @@
       <c r="Y51" t="s">
         <v>43</v>
       </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6746,6 +6874,9 @@
       <c r="Y52" t="s">
         <v>43</v>
       </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -6805,6 +6936,9 @@
       <c r="Y53" t="s">
         <v>43</v>
       </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -6879,6 +7013,9 @@
       <c r="Y54" t="s">
         <v>43</v>
       </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -6935,6 +7072,9 @@
       <c r="Y55" t="s">
         <v>43</v>
       </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -7083,6 +7223,9 @@
       <c r="Y57" t="s">
         <v>43</v>
       </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -7148,6 +7291,9 @@
       <c r="Y58" t="s">
         <v>43</v>
       </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -7210,6 +7356,9 @@
       <c r="Y59" t="s">
         <v>43</v>
       </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -7281,6 +7430,9 @@
       <c r="Y60" t="s">
         <v>43</v>
       </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -7343,6 +7495,9 @@
       <c r="Y61" t="s">
         <v>43</v>
       </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -7411,6 +7566,9 @@
       <c r="Y62" t="s">
         <v>43</v>
       </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -7488,6 +7646,9 @@
       <c r="Y63" t="s">
         <v>43</v>
       </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -7550,6 +7711,9 @@
       <c r="Y64" t="s">
         <v>43</v>
       </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -7627,6 +7791,9 @@
       <c r="Y65" t="s">
         <v>43</v>
       </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -7686,6 +7853,9 @@
       <c r="Y66" t="s">
         <v>43</v>
       </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -7745,6 +7915,9 @@
       <c r="Y67" t="s">
         <v>43</v>
       </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -7816,6 +7989,9 @@
       <c r="Y68" t="s">
         <v>43</v>
       </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -7887,6 +8063,9 @@
       <c r="Y69" t="s">
         <v>43</v>
       </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -7946,6 +8125,9 @@
       <c r="Y70" t="s">
         <v>43</v>
       </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -8020,6 +8202,9 @@
       <c r="Y71" t="s">
         <v>43</v>
       </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -8094,6 +8279,9 @@
       <c r="Y72" t="s">
         <v>43</v>
       </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -8165,6 +8353,9 @@
       <c r="Y73" t="s">
         <v>43</v>
       </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -8239,6 +8430,9 @@
       <c r="Y74" t="s">
         <v>43</v>
       </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -8307,6 +8501,9 @@
       <c r="Y75" t="s">
         <v>43</v>
       </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -8382,7 +8579,7 @@
         <v>43</v>
       </c>
       <c r="Z76" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG76">
         <v>1</v>
@@ -8464,6 +8661,9 @@
       <c r="Y77" t="s">
         <v>43</v>
       </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -8529,6 +8729,9 @@
       <c r="Y78" t="s">
         <v>43</v>
       </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -8603,6 +8806,9 @@
       <c r="Y79" t="s">
         <v>43</v>
       </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -8677,8 +8883,11 @@
       <c r="Y80" t="s">
         <v>43</v>
       </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7152</v>
       </c>
@@ -8739,8 +8948,11 @@
       <c r="Y81" t="s">
         <v>43</v>
       </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7208</v>
       </c>
@@ -8813,8 +9025,11 @@
       <c r="Y82" t="s">
         <v>43</v>
       </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2360</v>
       </c>
@@ -8884,8 +9099,11 @@
       <c r="Y83" t="s">
         <v>43</v>
       </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6394</v>
       </c>
@@ -8955,8 +9173,11 @@
       <c r="Y84" t="s">
         <v>43</v>
       </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10077</v>
       </c>
@@ -9020,8 +9241,11 @@
       <c r="Y85" t="s">
         <v>43</v>
       </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8140</v>
       </c>
@@ -9079,8 +9303,11 @@
       <c r="Y86" t="s">
         <v>43</v>
       </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1273</v>
       </c>
@@ -9150,8 +9377,11 @@
       <c r="Y87" t="s">
         <v>43</v>
       </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10176</v>
       </c>
@@ -9224,8 +9454,11 @@
       <c r="Y88" t="s">
         <v>43</v>
       </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3720</v>
       </c>
@@ -9295,8 +9528,11 @@
       <c r="Y89" t="s">
         <v>43</v>
       </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7357</v>
       </c>
@@ -9366,8 +9602,11 @@
       <c r="Y90" t="s">
         <v>43</v>
       </c>
+      <c r="AG90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>817</v>
       </c>
@@ -9437,8 +9676,11 @@
       <c r="Y91" t="s">
         <v>43</v>
       </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7064</v>
       </c>
@@ -9502,8 +9744,11 @@
       <c r="Y92" t="s">
         <v>43</v>
       </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10510</v>
       </c>
@@ -9564,22 +9809,25 @@
       <c r="Y93" t="s">
         <v>43</v>
       </c>
-      <c r="AF93" s="4" t="s">
-        <v>820</v>
+      <c r="AF93" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG93">
+        <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4896</v>
       </c>
       <c r="B94" t="s">
+        <v>820</v>
+      </c>
+      <c r="C94" t="s">
         <v>821</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>822</v>
-      </c>
-      <c r="D94" t="s">
-        <v>823</v>
       </c>
       <c r="E94">
         <v>2004</v>
@@ -9588,13 +9836,13 @@
         <v>50</v>
       </c>
       <c r="J94" t="s">
+        <v>823</v>
+      </c>
+      <c r="L94" t="s">
         <v>824</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>825</v>
-      </c>
-      <c r="M94" t="s">
-        <v>826</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -9618,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -9629,38 +9877,41 @@
       <c r="Y94" t="s">
         <v>43</v>
       </c>
+      <c r="AG94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7401</v>
       </c>
       <c r="B95" t="s">
+        <v>827</v>
+      </c>
+      <c r="C95" t="s">
         <v>828</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>829</v>
-      </c>
-      <c r="D95" t="s">
-        <v>830</v>
       </c>
       <c r="E95">
         <v>2017</v>
       </c>
       <c r="F95" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I95" t="s">
         <v>478</v>
       </c>
       <c r="J95" t="s">
+        <v>831</v>
+      </c>
+      <c r="L95" t="s">
         <v>832</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>833</v>
       </c>
-      <c r="M95" t="s">
-        <v>834</v>
-      </c>
       <c r="N95">
         <v>1</v>
       </c>
@@ -9674,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S95" s="2">
         <v>45203</v>
@@ -9694,25 +9945,28 @@
       <c r="Y95" t="s">
         <v>43</v>
       </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7147</v>
       </c>
       <c r="B96" t="s">
+        <v>834</v>
+      </c>
+      <c r="C96" t="s">
         <v>835</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>836</v>
-      </c>
-      <c r="D96" t="s">
-        <v>837</v>
       </c>
       <c r="E96">
         <v>2021</v>
       </c>
       <c r="F96" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G96" t="s">
         <v>98</v>
@@ -9724,14 +9978,14 @@
         <v>50</v>
       </c>
       <c r="J96" t="s">
+        <v>838</v>
+      </c>
+      <c r="L96" t="s">
         <v>839</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>840</v>
       </c>
-      <c r="M96" t="s">
-        <v>841</v>
-      </c>
       <c r="N96">
         <v>1</v>
       </c>
@@ -9745,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="S96" s="2">
         <v>45203</v>
@@ -9764,6 +10018,9 @@
       </c>
       <c r="Y96" t="s">
         <v>43</v>
+      </c>
+      <c r="AG96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
@@ -9771,19 +10028,19 @@
         <v>979</v>
       </c>
       <c r="B97" t="s">
+        <v>841</v>
+      </c>
+      <c r="C97" t="s">
         <v>842</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>843</v>
-      </c>
-      <c r="D97" t="s">
-        <v>844</v>
       </c>
       <c r="E97">
         <v>2013</v>
       </c>
       <c r="F97" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G97" t="s">
         <v>48</v>
@@ -9795,28 +10052,28 @@
         <v>50</v>
       </c>
       <c r="J97" t="s">
+        <v>845</v>
+      </c>
+      <c r="L97" t="s">
         <v>846</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>847</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
         <v>848</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97" t="s">
-        <v>849</v>
       </c>
       <c r="S97" s="2">
         <v>45217</v>
@@ -9835,6 +10092,9 @@
       </c>
       <c r="Y97" t="s">
         <v>43</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.2">
@@ -9842,19 +10102,19 @@
         <v>6557</v>
       </c>
       <c r="B98" t="s">
+        <v>849</v>
+      </c>
+      <c r="C98" t="s">
         <v>850</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>851</v>
-      </c>
-      <c r="D98" t="s">
-        <v>852</v>
       </c>
       <c r="E98">
         <v>2023</v>
       </c>
       <c r="F98" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H98" t="s">
         <v>792</v>
@@ -9863,31 +10123,31 @@
         <v>50</v>
       </c>
       <c r="J98" t="s">
+        <v>853</v>
+      </c>
+      <c r="K98" t="s">
         <v>854</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>855</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>856</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
         <v>857</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98" t="s">
-        <v>858</v>
       </c>
       <c r="S98" s="2">
         <v>45203</v>
@@ -9919,13 +10179,13 @@
         <v>6507</v>
       </c>
       <c r="B99" t="s">
+        <v>858</v>
+      </c>
+      <c r="C99" t="s">
         <v>859</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>860</v>
-      </c>
-      <c r="D99" t="s">
-        <v>861</v>
       </c>
       <c r="E99">
         <v>2023</v>
@@ -9934,31 +10194,31 @@
         <v>59</v>
       </c>
       <c r="J99" t="s">
+        <v>861</v>
+      </c>
+      <c r="K99" t="s">
         <v>862</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>863</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>864</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
         <v>865</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99" t="s">
-        <v>866</v>
       </c>
       <c r="S99" s="2">
         <v>45203</v>
@@ -9980,6 +10240,9 @@
       </c>
       <c r="Y99" t="s">
         <v>43</v>
+      </c>
+      <c r="AG99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
@@ -9987,13 +10250,13 @@
         <v>1059</v>
       </c>
       <c r="B100" t="s">
+        <v>866</v>
+      </c>
+      <c r="C100" t="s">
         <v>867</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>868</v>
-      </c>
-      <c r="D100" t="s">
-        <v>869</v>
       </c>
       <c r="E100">
         <v>2017</v>
@@ -10002,28 +10265,28 @@
         <v>59</v>
       </c>
       <c r="J100" t="s">
+        <v>869</v>
+      </c>
+      <c r="L100" t="s">
         <v>870</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>871</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
         <v>872</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100" t="s">
-        <v>873</v>
       </c>
       <c r="S100" s="2">
         <v>45203</v>
@@ -10052,19 +10315,19 @@
         <v>2791</v>
       </c>
       <c r="B101" t="s">
+        <v>873</v>
+      </c>
+      <c r="C101" t="s">
         <v>874</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>875</v>
-      </c>
-      <c r="D101" t="s">
-        <v>876</v>
       </c>
       <c r="E101">
         <v>2017</v>
       </c>
       <c r="F101" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H101" t="s">
         <v>99</v>
@@ -10073,28 +10336,28 @@
         <v>50</v>
       </c>
       <c r="J101" t="s">
+        <v>877</v>
+      </c>
+      <c r="L101" t="s">
         <v>878</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>879</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
         <v>880</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101" t="s">
-        <v>881</v>
       </c>
       <c r="S101" s="2">
         <v>45203</v>
@@ -10113,6 +10376,9 @@
       </c>
       <c r="Y101" t="s">
         <v>43</v>
+      </c>
+      <c r="AG101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
